--- a/docs/database/wikistudenti_database_vincoli.xlsx
+++ b/docs/database/wikistudenti_database_vincoli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\OneDrive\Documenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c58f73d820186008/Scuola/ITIS/Informatica/WikiStudenti/5C_WikiStudenti_Avveduto_Barani_Brambilla_Cecire/docs/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80DF8C3B-434D-4072-960B-6F163210F281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{80DF8C3B-434D-4072-960B-6F163210F281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9095E11E-FEEB-4859-AF08-C374D7B7CEFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13B06705-4FB7-4611-A08B-735625054954}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>Relazione</t>
   </si>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,12 +422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -770,7 +764,7 @@
   <dimension ref="B1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,8 +966,8 @@
       <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="6">
-        <v>40</v>
+      <c r="F15" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1245,21 +1239,21 @@
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1352,7 +1346,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1415,7 +1409,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
